--- a/cookies/cookies_data_firefox_database.xlsx
+++ b/cookies/cookies_data_firefox_database.xlsx
@@ -1,88 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>originAttributes</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>expiry</t>
-  </si>
-  <si>
-    <t>lastAccessed</t>
-  </si>
-  <si>
-    <t>creationTime</t>
-  </si>
-  <si>
-    <t>isSecure</t>
-  </si>
-  <si>
-    <t>isHttpOnly</t>
-  </si>
-  <si>
-    <t>inBrowserElement</t>
-  </si>
-  <si>
-    <t>sameSite</t>
-  </si>
-  <si>
-    <t>rawSameSite</t>
-  </si>
-  <si>
-    <t>schemeMap</t>
-  </si>
-  <si>
-    <t>isPartitionedAttributeSet</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">originAttributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastAccessedTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creationTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSecure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isHttpOnly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inBrowserElement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sameSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schemeMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isPartitionedAttributeSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleCookie1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is a secure sample cookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.pineconedata.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleCookie2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is a HTTP Only sample cookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleCookie3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is another sample cookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,82 +150,115 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -177,255 +266,152 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,14 +454,202 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45671.1746759259</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="n">
+        <v>45663.9663425926</v>
+      </c>
+      <c r="I2" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45694.1746759259</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="n">
+        <v>45663.9663425926</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="n">
+        <v>45663.9663425926</v>
+      </c>
+      <c r="I4" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/cookies/cookies_data_firefox_database.xlsx
+++ b/cookies/cookies_data_firefox_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t xml:space="preserve">originAttributes</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTPS</t>
   </si>
   <si>
     <t xml:space="preserve">sampleCookie2</t>
@@ -195,19 +198,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -406,7 +409,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -456,130 +459,130 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>45671.1746759259</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="n">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="n">
         <v>45663.9663425926</v>
       </c>
-      <c r="I2" s="3" t="b">
+      <c r="I2" s="4" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="b">
+      <c r="J2" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" s="3" t="n">
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>45694.1746759259</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="n">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="n">
         <v>45663.9663425926</v>
       </c>
-      <c r="I3" s="3" t="b">
+      <c r="I3" s="4" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="b">
+      <c r="J3" s="4" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" s="3" t="n">
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="n">
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="n">
         <v>45663.9663425926</v>
       </c>
-      <c r="I4" s="3" t="b">
+      <c r="I4" s="4" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J4" s="3" t="b">
+      <c r="J4" s="4" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" s="3" t="n">
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
